--- a/InputData/fuels/MPIiFP/Max Perc Inc in Fuel Production.xlsx
+++ b/InputData/fuels/MPIiFP/Max Perc Inc in Fuel Production.xlsx
@@ -1,31 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipM\InputData\fuels\MPIiFP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\fuels\MPIiFP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D9824F3-C3FF-499D-B20F-1DD4B8AA3F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28185" windowHeight="12510"/>
+    <workbookView xWindow="105" yWindow="120" windowWidth="12150" windowHeight="17160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="MPIiFP" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Source:</t>
   </si>
@@ -121,12 +133,15 @@
   </si>
   <si>
     <t>technically recoverable oil deposits.</t>
+  </si>
+  <si>
+    <t>California</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -170,22 +185,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,19 +478,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="6">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,37 +504,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -527,13 +546,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -547,2351 +568,2351 @@
       <c r="B1" s="3">
         <v>2017</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1">
         <v>2018</v>
       </c>
       <c r="D1" s="3">
         <v>2019</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1">
         <v>2020</v>
       </c>
       <c r="F1" s="3">
         <v>2021</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1">
         <v>2022</v>
       </c>
       <c r="H1" s="3">
         <v>2023</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1">
         <v>2024</v>
       </c>
       <c r="J1" s="3">
         <v>2025</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1">
         <v>2026</v>
       </c>
       <c r="L1" s="3">
         <v>2027</v>
       </c>
-      <c r="M1" s="4">
+      <c r="M1">
         <v>2028</v>
       </c>
       <c r="N1" s="3">
         <v>2029</v>
       </c>
-      <c r="O1" s="4">
+      <c r="O1">
         <v>2030</v>
       </c>
       <c r="P1" s="3">
         <v>2031</v>
       </c>
-      <c r="Q1" s="4">
+      <c r="Q1">
         <v>2032</v>
       </c>
       <c r="R1" s="3">
         <v>2033</v>
       </c>
-      <c r="S1" s="4">
+      <c r="S1">
         <v>2034</v>
       </c>
       <c r="T1" s="3">
         <v>2035</v>
       </c>
-      <c r="U1" s="4">
+      <c r="U1">
         <v>2036</v>
       </c>
       <c r="V1" s="3">
         <v>2037</v>
       </c>
-      <c r="W1" s="4">
+      <c r="W1">
         <v>2038</v>
       </c>
       <c r="X1" s="3">
         <v>2039</v>
       </c>
-      <c r="Y1" s="4">
+      <c r="Y1">
         <v>2040</v>
       </c>
       <c r="Z1" s="3">
         <v>2041</v>
       </c>
-      <c r="AA1" s="4">
+      <c r="AA1">
         <v>2042</v>
       </c>
       <c r="AB1" s="3">
         <v>2043</v>
       </c>
-      <c r="AC1" s="4">
+      <c r="AC1">
         <v>2044</v>
       </c>
       <c r="AD1" s="3">
         <v>2045</v>
       </c>
-      <c r="AE1" s="4">
+      <c r="AE1">
         <v>2046</v>
       </c>
       <c r="AF1" s="3">
         <v>2047</v>
       </c>
-      <c r="AG1" s="4">
+      <c r="AG1">
         <v>2048</v>
       </c>
       <c r="AH1" s="3">
         <v>2049</v>
       </c>
-      <c r="AI1" s="4">
+      <c r="AI1">
         <v>2050</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6">
-        <v>0</v>
-      </c>
-      <c r="K2" s="6">
-        <v>0</v>
-      </c>
-      <c r="L2" s="6">
-        <v>0</v>
-      </c>
-      <c r="M2" s="6">
-        <v>0</v>
-      </c>
-      <c r="N2" s="6">
-        <v>0</v>
-      </c>
-      <c r="O2" s="6">
-        <v>0</v>
-      </c>
-      <c r="P2" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>0</v>
-      </c>
-      <c r="R2" s="6">
-        <v>0</v>
-      </c>
-      <c r="S2" s="6">
-        <v>0</v>
-      </c>
-      <c r="T2" s="6">
-        <v>0</v>
-      </c>
-      <c r="U2" s="6">
-        <v>0</v>
-      </c>
-      <c r="V2" s="6">
-        <v>0</v>
-      </c>
-      <c r="W2" s="6">
-        <v>0</v>
-      </c>
-      <c r="X2" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="6">
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4">
+        <v>0</v>
+      </c>
+      <c r="U2" s="4">
+        <v>0</v>
+      </c>
+      <c r="V2" s="4">
+        <v>0</v>
+      </c>
+      <c r="W2" s="4">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="C3">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="F3">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="G3">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="I3">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="J3">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="K3">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="L3">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="M3">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="N3">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="O3">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="P3">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Q3">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="R3">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="S3">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="T3">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="U3">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="V3">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="W3">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="X3">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Y3">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Z3">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AA3">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AB3">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AC3">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AD3">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AE3">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AF3">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AG3">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AH3">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AI3">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="C4">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="D4">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="F4">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="G4">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="I4">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="J4">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="K4">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="L4">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="M4">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="N4">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="O4">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="P4">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Q4">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="R4">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="S4">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="T4">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="U4">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="V4">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="W4">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="X4">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Y4">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Z4">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AA4">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AB4">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AC4">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AD4">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AE4">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AF4">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AG4">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AH4">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AI4">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="C5">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="D5">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="F5">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="G5">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="I5">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="J5">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="K5">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="L5">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="M5">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="N5">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="O5">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="P5">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Q5">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="R5">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="S5">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="T5">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="U5">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="V5">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="W5">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="X5">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Y5">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Z5">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AA5">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AB5">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AC5">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AD5">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AE5">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AF5">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AG5">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AH5">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AI5">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0</v>
-      </c>
-      <c r="M6" s="6">
-        <v>0</v>
-      </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="O6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>0</v>
-      </c>
-      <c r="R6" s="6">
-        <v>0</v>
-      </c>
-      <c r="S6" s="6">
-        <v>0</v>
-      </c>
-      <c r="T6" s="6">
-        <v>0</v>
-      </c>
-      <c r="U6" s="6">
-        <v>0</v>
-      </c>
-      <c r="V6" s="6">
-        <v>0</v>
-      </c>
-      <c r="W6" s="6">
-        <v>0</v>
-      </c>
-      <c r="X6" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="6">
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6">
-        <v>0</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0</v>
-      </c>
-      <c r="L7" s="6">
-        <v>0</v>
-      </c>
-      <c r="M7" s="6">
-        <v>0</v>
-      </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="O7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>0</v>
-      </c>
-      <c r="R7" s="6">
-        <v>0</v>
-      </c>
-      <c r="S7" s="6">
-        <v>0</v>
-      </c>
-      <c r="T7" s="6">
-        <v>0</v>
-      </c>
-      <c r="U7" s="6">
-        <v>0</v>
-      </c>
-      <c r="V7" s="6">
-        <v>0</v>
-      </c>
-      <c r="W7" s="6">
-        <v>0</v>
-      </c>
-      <c r="X7" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="6">
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4">
+        <v>0</v>
+      </c>
+      <c r="X7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6">
-        <v>0</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0</v>
-      </c>
-      <c r="M8" s="6">
-        <v>0</v>
-      </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="O8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>0</v>
-      </c>
-      <c r="R8" s="6">
-        <v>0</v>
-      </c>
-      <c r="S8" s="6">
-        <v>0</v>
-      </c>
-      <c r="T8" s="6">
-        <v>0</v>
-      </c>
-      <c r="U8" s="6">
-        <v>0</v>
-      </c>
-      <c r="V8" s="6">
-        <v>0</v>
-      </c>
-      <c r="W8" s="6">
-        <v>0</v>
-      </c>
-      <c r="X8" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="6">
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4">
+        <v>0</v>
+      </c>
+      <c r="V8" s="4">
+        <v>0</v>
+      </c>
+      <c r="W8" s="4">
+        <v>0</v>
+      </c>
+      <c r="X8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="C9">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="D9">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="E9">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="F9">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="G9">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="H9">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="I9">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="J9">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="K9">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="L9">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="M9">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="N9">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="O9">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="P9">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Q9">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="R9">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="S9">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="T9">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="U9">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="V9">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="W9">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="X9">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Y9">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Z9">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AA9">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AB9">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AC9">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AD9">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AE9">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AF9">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AG9">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AH9">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AI9">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="C10">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="D10">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="E10">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="F10">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="G10">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="H10">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="I10">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="J10">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="K10">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="L10">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="M10">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="N10">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="O10">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="P10">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Q10">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="R10">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="S10">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="T10">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="U10">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="V10">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="W10">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="X10">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Y10">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Z10">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AA10">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AB10">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AC10">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AD10">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AE10">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AF10">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AG10">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AH10">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AI10">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="C11">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="D11">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="E11">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="F11">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="G11">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="H11">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="I11">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="J11">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="K11">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="L11">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="M11">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="N11">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="O11">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="P11">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Q11">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="R11">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="S11">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="T11">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="U11">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="V11">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="W11">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="X11">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Y11">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Z11">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AA11">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AB11">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AC11">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AD11">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AE11">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AF11">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AG11">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AH11">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AI11">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="C12">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="D12">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="E12">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="F12">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="G12">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="H12">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="I12">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="J12">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="K12">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="L12">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="N12">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="O12">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="P12">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Q12">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="R12">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="S12">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="T12">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="U12">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="V12">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="W12">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="X12">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Y12">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Z12">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AA12">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AB12">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AC12">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AD12">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AE12">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AF12">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AG12">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AH12">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AI12">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="C13">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="D13">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="E13">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="F13">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="G13">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="H13">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="I13">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="J13">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="K13">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="L13">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="M13">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="N13">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="O13">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="P13">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Q13">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="R13">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="S13">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="T13">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="U13">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="V13">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="W13">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="X13">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Y13">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Z13">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AA13">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AB13">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AC13">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AD13">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AE13">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AF13">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AG13">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AH13">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AI13">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="C14">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="D14">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="E14">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="F14">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="G14">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="H14">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="I14">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="J14">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="K14">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="L14">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="M14">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="N14">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="O14">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="P14">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Q14">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="R14">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="S14">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="T14">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="U14">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="V14">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="W14">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="X14">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Y14">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Z14">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AA14">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AB14">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AC14">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AD14">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AE14">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AF14">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AG14">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AH14">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AI14">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="6">
-        <v>0</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="6">
-        <v>0</v>
-      </c>
-      <c r="I15" s="6">
-        <v>0</v>
-      </c>
-      <c r="J15" s="6">
-        <v>0</v>
-      </c>
-      <c r="K15" s="6">
-        <v>0</v>
-      </c>
-      <c r="L15" s="6">
-        <v>0</v>
-      </c>
-      <c r="M15" s="6">
-        <v>0</v>
-      </c>
-      <c r="N15" s="6">
-        <v>0</v>
-      </c>
-      <c r="O15" s="6">
-        <v>0</v>
-      </c>
-      <c r="P15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="6">
-        <v>0</v>
-      </c>
-      <c r="R15" s="6">
-        <v>0</v>
-      </c>
-      <c r="S15" s="6">
-        <v>0</v>
-      </c>
-      <c r="T15" s="6">
-        <v>0</v>
-      </c>
-      <c r="U15" s="6">
-        <v>0</v>
-      </c>
-      <c r="V15" s="6">
-        <v>0</v>
-      </c>
-      <c r="W15" s="6">
-        <v>0</v>
-      </c>
-      <c r="X15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="6">
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>0</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0</v>
+      </c>
+      <c r="S15" s="4">
+        <v>0</v>
+      </c>
+      <c r="T15" s="4">
+        <v>0</v>
+      </c>
+      <c r="U15" s="4">
+        <v>0</v>
+      </c>
+      <c r="V15" s="4">
+        <v>0</v>
+      </c>
+      <c r="W15" s="4">
+        <v>0</v>
+      </c>
+      <c r="X15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="6">
-        <v>0</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0</v>
-      </c>
-      <c r="K16" s="6">
-        <v>0</v>
-      </c>
-      <c r="L16" s="6">
-        <v>0</v>
-      </c>
-      <c r="M16" s="6">
-        <v>0</v>
-      </c>
-      <c r="N16" s="6">
-        <v>0</v>
-      </c>
-      <c r="O16" s="6">
-        <v>0</v>
-      </c>
-      <c r="P16" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="6">
-        <v>0</v>
-      </c>
-      <c r="R16" s="6">
-        <v>0</v>
-      </c>
-      <c r="S16" s="6">
-        <v>0</v>
-      </c>
-      <c r="T16" s="6">
-        <v>0</v>
-      </c>
-      <c r="U16" s="6">
-        <v>0</v>
-      </c>
-      <c r="V16" s="6">
-        <v>0</v>
-      </c>
-      <c r="W16" s="6">
-        <v>0</v>
-      </c>
-      <c r="X16" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="6">
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16" s="4">
+        <v>0</v>
+      </c>
+      <c r="U16" s="4">
+        <v>0</v>
+      </c>
+      <c r="V16" s="4">
+        <v>0</v>
+      </c>
+      <c r="W16" s="4">
+        <v>0</v>
+      </c>
+      <c r="X16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="C17">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="D17">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="E17">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="F17">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="G17">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="H17">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="I17">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="J17">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="K17">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="L17">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="M17">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="N17">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="O17">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="P17">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Q17">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="R17">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="S17">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="T17">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="U17">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="V17">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="W17">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="X17">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Y17">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Z17">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AA17">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AB17">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AC17">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AD17">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AE17">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AF17">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AG17">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AH17">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AI17">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="C18">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="D18">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="E18">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="F18">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="G18">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="H18">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="I18">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="J18">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="K18">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="L18">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="M18">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="N18">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="O18">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="P18">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Q18">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="R18">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="S18">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="T18">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="U18">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="V18">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="W18">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="X18">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Y18">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Z18">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AA18">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AB18">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AC18">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AD18">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AE18">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AF18">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AG18">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AH18">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AI18">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="C19">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="D19">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="E19">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="F19">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="G19">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="H19">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="I19">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="J19">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="K19">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="L19">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="M19">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="N19">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="O19">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="P19">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Q19">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="R19">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="S19">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="T19">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="U19">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="V19">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="W19">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="X19">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Y19">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Z19">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AA19">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AB19">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AC19">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AD19">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AE19">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AF19">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AG19">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AH19">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AI19">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="C20">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="D20">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="E20">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="F20">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="G20">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="H20">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="I20">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="J20">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="K20">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="L20">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="M20">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="N20">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="O20">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="P20">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Q20">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="R20">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="S20">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="T20">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="U20">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="V20">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="W20">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="X20">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Y20">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Z20">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AA20">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AB20">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AC20">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AD20">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AE20">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AF20">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AG20">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AH20">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AI20">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="C21">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="D21">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="E21">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="F21">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="G21">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="H21">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="I21">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="J21">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="K21">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="L21">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="M21">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="N21">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="O21">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="P21">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Q21">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="R21">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="S21">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="T21">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="U21">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="V21">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="W21">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="X21">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Y21">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Z21">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AA21">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AB21">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AC21">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AD21">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AE21">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AF21">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AG21">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AH21">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AI21">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="C22">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="D22">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="E22">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="F22">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="G22">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="H22">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="I22">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="J22">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="K22">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="L22">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="M22">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="N22">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="O22">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="P22">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Q22">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="R22">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="S22">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="T22">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="U22">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="V22">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="W22">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="X22">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Y22">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="Z22">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AA22">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AB22">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AC22">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AD22">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AE22">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AF22">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AG22">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AH22">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AI22">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/fuels/MPIiFP/Max Perc Inc in Fuel Production.xlsx
+++ b/InputData/fuels/MPIiFP/Max Perc Inc in Fuel Production.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\fuels\MPIiFP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D9824F3-C3FF-499D-B20F-1DD4B8AA3F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9302D142-DA25-41CB-9C95-F06C75BEFA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="120" windowWidth="12150" windowHeight="17160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="525" yWindow="1275" windowWidth="14235" windowHeight="9960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -493,7 +493,7 @@
         <v>32</v>
       </c>
       <c r="C1" s="6">
-        <v>45271</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
